--- a/src/test/resources/testData/excelFiles/PagesInfo.xlsx
+++ b/src/test/resources/testData/excelFiles/PagesInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bdc35798bb2dfa9/Desktop/JAVA Projects/MyProject/src/test/resources/excelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bdc35798bb2dfa9/Desktop/JAVA Projects/NewMyProject/src/test/resources/testData/excelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{ADF89790-216D-4A8B-9D72-27EFBEECB90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{ADF89790-216D-4A8B-9D72-27EFBEECB90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91259BC4-15C0-4B01-9DB9-A4DCD514EB8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A86A455-F4C4-4C5B-993A-339D0109E044}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Stryker - Medical Devices and Equipment Manufacturing Company | Stryker</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>https://www.stryker.com/us/en/about/contact.html</t>
+  </si>
+  <si>
+    <t>message</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FF73DF-7143-4D80-BEE1-C5307A355583}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -521,8 +524,11 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -533,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -544,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -555,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -566,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -577,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -588,7 +594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -599,7 +605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -610,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -621,7 +627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -632,7 +638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -643,7 +649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
